--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.65509973667084154</v>
+        <v>0.65509973660986986</v>
       </c>
       <c r="C2">
-        <v>6.2635679151864849</v>
+        <v>6.2635679152273553</v>
       </c>
       <c r="D2">
-        <v>5.2687285896883864</v>
+        <v>5.2687285896384282</v>
       </c>
       <c r="E2">
-        <v>13.981049640164862</v>
+        <v>13.981049639975204</v>
       </c>
       <c r="F2">
-        <v>3.2908040263476153</v>
+        <v>3.2908040257036149</v>
       </c>
       <c r="G2">
-        <v>0.61847843345690023</v>
+        <v>0.61847843354476595</v>
       </c>
       <c r="H2">
-        <v>3.1184589222826276</v>
+        <v>3.1184589223357335</v>
       </c>
       <c r="I2">
-        <v>8.7847782791612445</v>
+        <v>8.7847782789047457</v>
       </c>
       <c r="J2">
-        <v>8.5715870127062601</v>
+        <v>8.5715870141213628</v>
       </c>
       <c r="K2">
-        <v>1.9076915029049033</v>
+        <v>1.9076915029324653</v>
       </c>
       <c r="L2">
-        <v>2.5422478483526163</v>
+        <v>2.5422478485218178</v>
       </c>
       <c r="M2">
-        <v>-6.8124401732736999</v>
+        <v>-6.8124401735132381</v>
       </c>
       <c r="N2">
-        <v>9.0458331432851935</v>
+        <v>9.045833143034713</v>
       </c>
       <c r="O2">
-        <v>3.8547716179041487</v>
+        <v>3.854771617899388</v>
       </c>
       <c r="P2">
-        <v>10.469560156414033</v>
+        <v>10.469560156331795</v>
       </c>
       <c r="Q2">
-        <v>-1.7120029886066916</v>
+        <v>-1.7120029885596821</v>
       </c>
       <c r="R2">
-        <v>-7.3854454323171836</v>
+        <v>-7.3854454316297193</v>
       </c>
       <c r="S2">
-        <v>20.433115264489643</v>
+        <v>20.433115264238197</v>
       </c>
       <c r="T2">
-        <v>14.484722564712982</v>
+        <v>14.484722564390104</v>
       </c>
       <c r="U2">
-        <v>-3.1903191436368132</v>
+        <v>-3.1903191434624034</v>
       </c>
       <c r="V2">
-        <v>1.5522249347175006</v>
+        <v>1.5522249344529442</v>
       </c>
       <c r="W2">
-        <v>-10.100594200089638</v>
+        <v>-10.10059419921722</v>
       </c>
       <c r="X2">
-        <v>-1.311403349029348</v>
+        <v>-1.3114033486923233</v>
       </c>
       <c r="Y2">
-        <v>11.224584841232513</v>
+        <v>11.224584841185369</v>
       </c>
       <c r="Z2">
-        <v>5.9122972130151865</v>
+        <v>5.9122972129036242</v>
       </c>
       <c r="AA2">
-        <v>7.9036336117497541</v>
+        <v>7.903633616090147</v>
       </c>
       <c r="AB2">
-        <v>4.251145966188929</v>
+        <v>4.2511459662214151</v>
       </c>
       <c r="AC2">
-        <v>-2.8988463191138436</v>
+        <v>-2.8988463191232512</v>
       </c>
       <c r="AD2">
-        <v>12.032565316312485</v>
+        <v>12.032565316252033</v>
       </c>
       <c r="AE2">
-        <v>2.5214708072211707</v>
+        <v>2.5214708069917506</v>
       </c>
       <c r="AF2">
-        <v>6.3384075464777112</v>
+        <v>6.3384075460316467</v>
       </c>
       <c r="AG2">
-        <v>5.7876478059511598</v>
+        <v>5.7876478070830117</v>
       </c>
       <c r="AH2">
-        <v>8.051806478947249</v>
+        <v>8.0518064794147435</v>
       </c>
       <c r="AI2">
-        <v>8.3351453462297656</v>
+        <v>8.3351453460946772</v>
       </c>
       <c r="AJ2">
-        <v>5.654188977856542</v>
+        <v>5.6541889780854575</v>
       </c>
       <c r="AK2">
-        <v>7.6125678905936454</v>
+        <v>7.6125678904880303</v>
       </c>
       <c r="AL2">
-        <v>-5.6225511434679021</v>
+        <v>-5.6225511432654542</v>
       </c>
       <c r="AM2">
-        <v>6.0430975013226345</v>
+        <v>6.0430975014234463</v>
       </c>
       <c r="AN2">
-        <v>7.121647764590179</v>
+        <v>7.121647764511863</v>
       </c>
       <c r="AO2">
-        <v>14.310157594589398</v>
+        <v>14.310157595001257</v>
       </c>
       <c r="AP2">
-        <v>10.258423773337682</v>
+        <v>10.258423772998569</v>
       </c>
       <c r="AQ2">
-        <v>-7.1311412664715448</v>
+        <v>-7.1311412664558205</v>
       </c>
       <c r="AR2">
-        <v>17.065770648721724</v>
+        <v>17.065770654009242</v>
       </c>
       <c r="AS2">
-        <v>12.135007685073475</v>
+        <v>12.135007688207835</v>
       </c>
       <c r="AT2">
-        <v>3.148017289001146</v>
+        <v>3.1480172889439189</v>
       </c>
       <c r="AU2">
-        <v>8.810116684505374</v>
+        <v>8.8101166846862498</v>
       </c>
       <c r="AV2">
-        <v>-3.0013899525876084</v>
+        <v>-3.0013899522906016</v>
       </c>
       <c r="AW2">
-        <v>0.39976083005269203</v>
+        <v>0.39976083023564257</v>
       </c>
       <c r="AX2">
-        <v>9.1556054539665581</v>
+        <v>9.1556054539136937</v>
       </c>
       <c r="AY2">
-        <v>14.294065136129227</v>
+        <v>14.294065136059992</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.8777132578576001</v>
+        <v>2.8777132577803783</v>
       </c>
       <c r="C3">
-        <v>1.2030918362458607</v>
+        <v>1.2030918362239618</v>
       </c>
       <c r="D3">
-        <v>9.4291302958213237</v>
+        <v>9.4291302960531311</v>
       </c>
       <c r="E3">
-        <v>6.4886220106857451</v>
+        <v>6.4886220422721692</v>
       </c>
       <c r="F3">
-        <v>2.4542091529611554</v>
+        <v>2.454209153070174</v>
       </c>
       <c r="G3">
-        <v>7.7076534467329907</v>
+        <v>7.7076534470297631</v>
       </c>
       <c r="H3">
-        <v>-4.8773596003853754</v>
+        <v>-4.8773596004183588</v>
       </c>
       <c r="I3">
-        <v>2.027294347313358</v>
+        <v>2.0272943472971434</v>
       </c>
       <c r="J3">
-        <v>9.8247142863421715</v>
+        <v>9.8247142864563699</v>
       </c>
       <c r="K3">
-        <v>20.351486211300106</v>
+        <v>20.351486211453299</v>
       </c>
       <c r="L3">
-        <v>10.273484917565497</v>
+        <v>10.273484917530958</v>
       </c>
       <c r="M3">
-        <v>-6.3228456074881478E-2</v>
+        <v>-6.3396176166122586E-2</v>
       </c>
       <c r="N3">
-        <v>4.7734771590613718</v>
+        <v>4.7734771590408371</v>
       </c>
       <c r="O3">
-        <v>-12.497863458341378</v>
+        <v>-12.497863458137125</v>
       </c>
       <c r="P3">
-        <v>6.9376507059279362</v>
+        <v>6.9376507060202925</v>
       </c>
       <c r="Q3">
-        <v>3.4152721407881117</v>
+        <v>3.4152721407238644</v>
       </c>
       <c r="R3">
-        <v>-3.4892700102478003</v>
+        <v>-3.4892700104559182</v>
       </c>
       <c r="S3">
-        <v>12.726053615077113</v>
+        <v>12.726053615033187</v>
       </c>
       <c r="T3">
-        <v>13.573066330502904</v>
+        <v>13.573066330691837</v>
       </c>
       <c r="U3">
-        <v>5.5320103371895826</v>
+        <v>5.5320103372518261</v>
       </c>
       <c r="V3">
-        <v>7.3248033757106654</v>
+        <v>7.3248033753843771</v>
       </c>
       <c r="W3">
-        <v>-2.7313477514021187</v>
+        <v>-2.7313477506040158</v>
       </c>
       <c r="X3">
-        <v>-4.6629027521028661</v>
+        <v>-4.6629027521059783</v>
       </c>
       <c r="Y3">
-        <v>14.331907687029293</v>
+        <v>14.331907686962872</v>
       </c>
       <c r="Z3">
-        <v>7.541905561801947</v>
+        <v>7.5419055619850823</v>
       </c>
       <c r="AA3">
-        <v>8.3323205443453503</v>
+        <v>8.3323205444963264</v>
       </c>
       <c r="AB3">
-        <v>6.7905065220490073</v>
+        <v>6.7905065221302223</v>
       </c>
       <c r="AC3">
-        <v>11.906799230141054</v>
+        <v>11.906799230458979</v>
       </c>
       <c r="AD3">
-        <v>12.836632070041937</v>
+        <v>12.836632070166921</v>
       </c>
       <c r="AE3">
-        <v>7.5648026397811066</v>
+        <v>7.5648026395896082</v>
       </c>
       <c r="AF3">
-        <v>5.4065054480687351</v>
+        <v>5.40650544817899</v>
       </c>
       <c r="AG3">
-        <v>1.9405491938783257</v>
+        <v>1.9405491939481223</v>
       </c>
       <c r="AH3">
-        <v>0.26419288932333984</v>
+        <v>0.26419288995545287</v>
       </c>
       <c r="AI3">
-        <v>30.010898998190868</v>
+        <v>30.010898999556915</v>
       </c>
       <c r="AJ3">
-        <v>11.394347514821064</v>
+        <v>11.394347515002906</v>
       </c>
       <c r="AK3">
-        <v>8.2178194068873509</v>
+        <v>8.2178194069478252</v>
       </c>
       <c r="AL3">
-        <v>4.8108693447746234</v>
+        <v>4.810869344722839</v>
       </c>
       <c r="AM3">
-        <v>3.6418213725218465</v>
+        <v>3.6418213723349879</v>
       </c>
       <c r="AN3">
-        <v>-10.929569272757</v>
+        <v>-10.929569272612419</v>
       </c>
       <c r="AO3">
-        <v>10.204069648867538</v>
+        <v>10.20406964790542</v>
       </c>
       <c r="AP3">
-        <v>-1.0481073794213174</v>
+        <v>-1.0481073782683268</v>
       </c>
       <c r="AQ3">
-        <v>5.3512210211965581</v>
+        <v>5.3512210226033119</v>
       </c>
       <c r="AR3">
-        <v>23.083406192903745</v>
+        <v>23.083406193965779</v>
       </c>
       <c r="AS3">
-        <v>9.6828066388195282</v>
+        <v>9.6828066385792226</v>
       </c>
       <c r="AT3">
-        <v>6.2845312755831131</v>
+        <v>6.2845312759803988</v>
       </c>
       <c r="AU3">
-        <v>4.8310976944922217</v>
+        <v>4.8310976952380287</v>
       </c>
       <c r="AV3">
-        <v>-1.1826876790249798</v>
+        <v>-1.1826876783426883</v>
       </c>
       <c r="AW3">
-        <v>-1.8201945358312628</v>
+        <v>-1.8201945361532808</v>
       </c>
       <c r="AX3">
-        <v>5.7486019366079262</v>
+        <v>5.7486019367973498</v>
       </c>
       <c r="AY3">
-        <v>17.136419719230425</v>
+        <v>17.136419719178711</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.65509973660986986</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.2635679152273553</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.2687285896384282</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13.981049639975204</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.2908040257036149</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.61847843354476595</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.1184589223357335</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.7847782789047457</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.5715870141213628</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.9076915029324653</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.5422478485218178</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.8124401735132381</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.045833143034713</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.854771617899388</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.469560156331795</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-1.7120029885596821</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-7.3854454316297193</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.433115264238197</v>
+        <v>14.551070249607477</v>
       </c>
       <c r="T2">
         <v>14.484722564390104</v>
@@ -573,7 +462,7 @@
         <v>-3.1903191434624034</v>
       </c>
       <c r="V2">
-        <v>1.5522249344529442</v>
+        <v>1.9639632373709546</v>
       </c>
       <c r="W2">
         <v>-10.10059419921722</v>
@@ -588,55 +477,55 @@
         <v>5.9122972129036242</v>
       </c>
       <c r="AA2">
-        <v>7.903633616090147</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.2511459662214151</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-2.8988463191232512</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>12.032565316252033</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.5214708069917506</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.3384075460316467</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.7876478070830117</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8.0518064794147435</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.3351453460946772</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.6541889780854575</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.6125678904880303</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-5.6225511432654542</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>6.0430975014234463</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>7.121647764511863</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.310157595001257</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>10.258423772998569</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-7.1311412664558205</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.065770654009242</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.8777132577803783</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.2030918362239618</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.4291302960531311</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.4886220422721692</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.454209153070174</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.7076534470297631</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-4.8773596004183588</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.0272943472971434</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.8247142864563699</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.351486211453299</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.273484917530958</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-6.3396176166122586E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.7734771590408371</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-12.497863458137125</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.9376507060202925</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.4152721407238644</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-3.4892700104559182</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>12.726053615033187</v>
@@ -743,55 +629,55 @@
         <v>7.5419055619850823</v>
       </c>
       <c r="AA3">
-        <v>8.3323205444963264</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.7905065221302223</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>11.906799230458979</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>12.836632070166921</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7.5648026395896082</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.40650544817899</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.9405491939481223</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.26419288995545287</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>30.010898999556915</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>11.394347515002906</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.2178194069478252</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.810869344722839</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.6418213723349879</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-10.929569272612419</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.20406964790542</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.0481073782683268</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.3512210226033119</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>23.083406193965779</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.65509973667084154</v>
-      </c>
       <c r="C2">
-        <v>2.8978507609228288</v>
-      </c>
-      <c r="D2">
-        <v>5.2687285896883864</v>
+        <v>-7.3854454316297193</v>
       </c>
       <c r="E2">
-        <v>13.981049640164862</v>
+        <v>-7.1311412664558205</v>
       </c>
       <c r="F2">
         <v>3.2908040263476153</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.8777132578576001</v>
+        <v>-8.6193128364008444</v>
       </c>
       <c r="C3">
-        <v>1.2030918362458607</v>
+        <v>-3.4892700104559182</v>
       </c>
       <c r="D3">
-        <v>9.4291302958213237</v>
+        <v>-10.505396392868107</v>
       </c>
       <c r="E3">
-        <v>6.4886220106857451</v>
+        <v>8.3121526468800937</v>
       </c>
       <c r="F3">
         <v>2.4542091529611554</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.65509973667084154</v>
-      </c>
-      <c r="C2">
-        <v>2.8978507609228288</v>
+        <v>7.26485333301558</v>
       </c>
       <c r="D2">
-        <v>5.2687285896883864</v>
-      </c>
-      <c r="E2">
-        <v>13.981049640164862</v>
+        <v>6.0430975014234463</v>
       </c>
       <c r="F2">
         <v>3.2908040263476153</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.8777132578576001</v>
+        <v>4.7734771590408371</v>
       </c>
       <c r="C3">
-        <v>1.2030918362458607</v>
+        <v>-8.6193128364008444</v>
       </c>
       <c r="D3">
-        <v>9.4291302958213237</v>
+        <v>3.6418213723349879</v>
       </c>
       <c r="E3">
-        <v>11.398152258326689</v>
+        <v>-10.505396392868107</v>
       </c>
       <c r="F3">
         <v>2.4542091529611554</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.65509973660986986</v>
+      </c>
+      <c r="C2">
+        <v>2.8978507608767288</v>
+      </c>
+      <c r="D2">
+        <v>5.2687285896384282</v>
+      </c>
+      <c r="E2">
+        <v>13.981049639975204</v>
+      </c>
+      <c r="F2">
+        <v>3.2908040257036149</v>
+      </c>
+      <c r="G2">
+        <v>2.5574794757932224</v>
+      </c>
+      <c r="H2">
+        <v>3.1184589223357335</v>
+      </c>
+      <c r="I2">
+        <v>10.617444324337228</v>
+      </c>
+      <c r="J2">
+        <v>8.5715870141213628</v>
+      </c>
+      <c r="K2">
+        <v>1.9076915029324653</v>
+      </c>
+      <c r="L2">
+        <v>1.1118920538554775</v>
+      </c>
+      <c r="M2">
+        <v>-1.4206304378788559</v>
+      </c>
+      <c r="N2">
         <v>7.26485333301558</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.143219201388732</v>
+      </c>
+      <c r="Q2">
+        <v>-1.7120029885596821</v>
+      </c>
+      <c r="R2">
+        <v>-7.3854454316297193</v>
+      </c>
+      <c r="T2">
+        <v>12.050383997965675</v>
+      </c>
+      <c r="U2">
+        <v>-3.1903191434624034</v>
+      </c>
+      <c r="V2">
+        <v>4.1933099164867045</v>
+      </c>
+      <c r="W2">
+        <v>-10.10059419921722</v>
+      </c>
+      <c r="X2">
+        <v>-1.3114033486923233</v>
+      </c>
+      <c r="Y2">
+        <v>11.224584841185369</v>
+      </c>
+      <c r="Z2">
+        <v>5.9122972129036242</v>
+      </c>
+      <c r="AA2">
+        <v>7.903633616090147</v>
+      </c>
+      <c r="AB2">
+        <v>4.2511459662214151</v>
+      </c>
+      <c r="AC2">
+        <v>-2.8988463191232512</v>
+      </c>
+      <c r="AD2">
+        <v>12.032565316252033</v>
+      </c>
+      <c r="AE2">
+        <v>2.5214708069917506</v>
+      </c>
+      <c r="AF2">
+        <v>6.3384075460316467</v>
+      </c>
+      <c r="AG2">
+        <v>5.7876478070830117</v>
+      </c>
+      <c r="AH2">
+        <v>8.0518064794147435</v>
+      </c>
+      <c r="AI2">
+        <v>8.3351453460946772</v>
+      </c>
+      <c r="AJ2">
+        <v>5.6541889780854575</v>
+      </c>
+      <c r="AK2">
+        <v>7.6125678904880303</v>
+      </c>
+      <c r="AL2">
+        <v>-5.6225511432654542</v>
+      </c>
+      <c r="AM2">
         <v>6.0430975014234463</v>
       </c>
-      <c r="F2">
-        <v>3.2908040263476153</v>
-      </c>
-      <c r="G2">
-        <v>2.5574794759727908</v>
-      </c>
-      <c r="H2">
-        <v>3.1184589222826276</v>
-      </c>
-      <c r="I2">
-        <v>10.617444322936237</v>
-      </c>
-      <c r="J2">
-        <v>8.5715870127062601</v>
-      </c>
-      <c r="K2">
-        <v>1.9076915029049033</v>
-      </c>
-      <c r="L2">
-        <v>1.1118920538734756</v>
-      </c>
-      <c r="M2">
-        <v>-1.4206304381814334</v>
-      </c>
-      <c r="N2">
-        <v>7.2648533321099933</v>
-      </c>
-      <c r="P2">
-        <v>11.143219201682442</v>
-      </c>
-      <c r="Q2">
-        <v>-1.7120029886066916</v>
-      </c>
-      <c r="R2">
-        <v>-7.3854454323171836</v>
-      </c>
-      <c r="T2">
-        <v>12.05038399770087</v>
-      </c>
-      <c r="U2">
-        <v>-3.1903191436368132</v>
-      </c>
-      <c r="V2">
-        <v>4.1933099164720744</v>
-      </c>
-      <c r="W2">
-        <v>-10.100594200089638</v>
-      </c>
-      <c r="X2">
-        <v>-1.311403349029348</v>
-      </c>
-      <c r="Y2">
-        <v>11.224584841232513</v>
-      </c>
-      <c r="Z2">
-        <v>5.9122972130151865</v>
-      </c>
-      <c r="AA2">
-        <v>7.9036336117497541</v>
-      </c>
-      <c r="AB2">
-        <v>4.251145966188929</v>
-      </c>
-      <c r="AC2">
-        <v>-2.8988463191138436</v>
-      </c>
-      <c r="AD2">
-        <v>12.032565316312485</v>
-      </c>
-      <c r="AE2">
-        <v>2.5214708072211707</v>
-      </c>
-      <c r="AF2">
-        <v>6.3384075464777112</v>
-      </c>
-      <c r="AG2">
-        <v>5.7876478059511598</v>
-      </c>
-      <c r="AH2">
-        <v>8.051806478947249</v>
-      </c>
-      <c r="AI2">
-        <v>8.3351453462297656</v>
-      </c>
-      <c r="AJ2">
-        <v>5.654188977856542</v>
-      </c>
-      <c r="AK2">
-        <v>7.6125678905936454</v>
-      </c>
-      <c r="AL2">
-        <v>-5.6225511434679021</v>
-      </c>
-      <c r="AM2">
-        <v>6.0430975013226345</v>
-      </c>
       <c r="AO2">
-        <v>14.310157594589398</v>
+        <v>14.310157595001257</v>
       </c>
       <c r="AP2">
-        <v>12.407804214940825</v>
+        <v>12.407804214693471</v>
       </c>
       <c r="AQ2">
-        <v>-7.1311412664715448</v>
+        <v>-7.1311412664558205</v>
       </c>
       <c r="AR2">
-        <v>17.065770648721724</v>
+        <v>17.065770654009242</v>
       </c>
       <c r="AS2">
-        <v>12.135007685073475</v>
+        <v>12.135007688207835</v>
       </c>
       <c r="AT2">
-        <v>3.148017289001146</v>
+        <v>3.1480172889439189</v>
       </c>
       <c r="AU2">
-        <v>3.5729062463805974</v>
+        <v>3.5729062651716319</v>
       </c>
       <c r="AV2">
-        <v>-3.0013899525876084</v>
+        <v>-3.0013899522906016</v>
       </c>
       <c r="AW2">
-        <v>0.39976083005269203</v>
+        <v>0.39976083023564257</v>
       </c>
       <c r="AX2">
-        <v>9.1556054539665581</v>
+        <v>9.1556054539136937</v>
       </c>
       <c r="AY2">
-        <v>14.294065136129227</v>
+        <v>14.294065136059992</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.8777132577803783</v>
+      </c>
+      <c r="C3">
+        <v>1.2030918362239618</v>
+      </c>
+      <c r="D3">
+        <v>9.4291302960531311</v>
+      </c>
+      <c r="E3">
+        <v>11.398152303002988</v>
+      </c>
+      <c r="F3">
+        <v>2.454209153070174</v>
+      </c>
+      <c r="G3">
+        <v>7.7076534470297631</v>
+      </c>
+      <c r="H3">
+        <v>-4.8773596004183588</v>
+      </c>
+      <c r="I3">
+        <v>2.0272943472971434</v>
+      </c>
+      <c r="J3">
+        <v>9.8247142864563699</v>
+      </c>
+      <c r="K3">
+        <v>16.190329585786515</v>
+      </c>
+      <c r="L3">
+        <v>10.273484917530958</v>
+      </c>
+      <c r="M3">
+        <v>-5.8070147076728915</v>
+      </c>
+      <c r="N3">
         <v>4.7734771590408371</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-8.6193128364008444</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.9376507060202925</v>
+      </c>
+      <c r="Q3">
+        <v>3.4152721407238644</v>
+      </c>
+      <c r="R3">
+        <v>-3.4892700104559182</v>
+      </c>
+      <c r="S3">
+        <v>12.726053615033187</v>
+      </c>
+      <c r="T3">
+        <v>13.573066330691837</v>
+      </c>
+      <c r="U3">
+        <v>5.5320103372518261</v>
+      </c>
+      <c r="V3">
+        <v>9.2500045560195758</v>
+      </c>
+      <c r="W3">
+        <v>-2.7313477506040158</v>
+      </c>
+      <c r="X3">
+        <v>-4.6629027521059783</v>
+      </c>
+      <c r="Y3">
+        <v>14.331907686962872</v>
+      </c>
+      <c r="Z3">
+        <v>7.5419055619850823</v>
+      </c>
+      <c r="AA3">
+        <v>8.3323205444963264</v>
+      </c>
+      <c r="AB3">
+        <v>6.7905065221302223</v>
+      </c>
+      <c r="AC3">
+        <v>11.906799230458979</v>
+      </c>
+      <c r="AD3">
+        <v>12.836632070166921</v>
+      </c>
+      <c r="AE3">
+        <v>7.5648026395896082</v>
+      </c>
+      <c r="AF3">
+        <v>5.40650544817899</v>
+      </c>
+      <c r="AG3">
+        <v>1.940549187527175</v>
+      </c>
+      <c r="AH3">
+        <v>0.26419288995545287</v>
+      </c>
+      <c r="AI3">
+        <v>7.9346076105342007</v>
+      </c>
+      <c r="AJ3">
+        <v>11.394347515002906</v>
+      </c>
+      <c r="AK3">
+        <v>8.2178194069478252</v>
+      </c>
+      <c r="AL3">
+        <v>4.810869344722839</v>
+      </c>
+      <c r="AM3">
         <v>3.6418213723349879</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-10.505396392868107</v>
       </c>
-      <c r="F3">
-        <v>2.4542091529611554</v>
-      </c>
-      <c r="G3">
-        <v>7.7076534467329907</v>
-      </c>
-      <c r="H3">
-        <v>-4.8773596003853754</v>
-      </c>
-      <c r="I3">
-        <v>2.027294347313358</v>
-      </c>
-      <c r="J3">
-        <v>9.8247142863421715</v>
-      </c>
-      <c r="K3">
-        <v>16.190329585552128</v>
-      </c>
-      <c r="L3">
-        <v>10.273484917565497</v>
-      </c>
-      <c r="M3">
-        <v>-5.807171657748853</v>
-      </c>
-      <c r="N3">
-        <v>4.7734771590613718</v>
-      </c>
-      <c r="O3">
-        <v>-8.619312837151142</v>
-      </c>
-      <c r="P3">
-        <v>6.9376507059279362</v>
-      </c>
-      <c r="Q3">
-        <v>3.4152721407881117</v>
-      </c>
-      <c r="R3">
-        <v>-3.4892700102478003</v>
-      </c>
-      <c r="S3">
-        <v>12.726053615077113</v>
-      </c>
-      <c r="T3">
-        <v>13.573066330502904</v>
-      </c>
-      <c r="U3">
-        <v>5.5320103371895826</v>
-      </c>
-      <c r="V3">
-        <v>9.2500045577052674</v>
-      </c>
-      <c r="W3">
-        <v>-2.7313477514021187</v>
-      </c>
-      <c r="X3">
-        <v>-4.6629027521028661</v>
-      </c>
-      <c r="Y3">
-        <v>14.331907687029293</v>
-      </c>
-      <c r="Z3">
-        <v>7.541905561801947</v>
-      </c>
-      <c r="AA3">
-        <v>8.3323205443453503</v>
-      </c>
-      <c r="AB3">
-        <v>6.7905065220490073</v>
-      </c>
-      <c r="AC3">
-        <v>11.906799230141054</v>
-      </c>
-      <c r="AD3">
-        <v>12.836632070041937</v>
-      </c>
-      <c r="AE3">
-        <v>7.5648026397811066</v>
-      </c>
-      <c r="AF3">
-        <v>5.4065054480687351</v>
-      </c>
-      <c r="AG3">
-        <v>1.9405491874573784</v>
-      </c>
-      <c r="AH3">
-        <v>0.26419288932333984</v>
-      </c>
-      <c r="AI3">
-        <v>7.9346076111368546</v>
-      </c>
-      <c r="AJ3">
-        <v>11.394347514821064</v>
-      </c>
-      <c r="AK3">
-        <v>8.2178194068873509</v>
-      </c>
-      <c r="AL3">
-        <v>4.8108693447746234</v>
-      </c>
-      <c r="AM3">
-        <v>3.6418213725218465</v>
-      </c>
-      <c r="AN3">
-        <v>-10.50539639301676</v>
-      </c>
       <c r="AO3">
-        <v>10.204069648867538</v>
+        <v>10.20406964790542</v>
       </c>
       <c r="AP3">
-        <v>-1.0481073794213174</v>
+        <v>-1.0481073782683268</v>
       </c>
       <c r="AQ3">
-        <v>8.3121526469345071</v>
+        <v>8.3121526468800937</v>
       </c>
       <c r="AR3">
-        <v>23.083406192903745</v>
+        <v>23.083406193965779</v>
       </c>
       <c r="AS3">
-        <v>9.6828066388195282</v>
+        <v>9.6828066385792226</v>
       </c>
       <c r="AT3">
-        <v>6.2845312755831131</v>
+        <v>6.2845312759803988</v>
       </c>
       <c r="AU3">
-        <v>5.3167557358890676</v>
+        <v>5.3167557370781751</v>
       </c>
       <c r="AV3">
-        <v>-1.1826876790249798</v>
+        <v>-1.1826876783426883</v>
       </c>
       <c r="AW3">
-        <v>-1.8201945358312628</v>
+        <v>-1.8201945361532808</v>
       </c>
       <c r="AX3">
-        <v>5.7486019366079262</v>
+        <v>5.7486019367973498</v>
       </c>
       <c r="AY3">
-        <v>17.136419719230425</v>
+        <v>17.136419719178711</v>
       </c>
     </row>
   </sheetData>
